--- a/results/MVSE/dblp/MVSE_dblp<l05><NCEK>91.96.xlsx
+++ b/results/MVSE/dblp/MVSE_dblp<l05><NCEK>91.96.xlsx
@@ -586,7 +586,9 @@
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_21-00_46_59', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'dblp', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['apa', 'apcpa'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 1500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="R2" t="inlineStr"/>
+      <c r="R2" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -654,7 +656,9 @@
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_21-01_05_42', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'dblp', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['apa', 'apcpa'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 2500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="R3" t="inlineStr"/>
+      <c r="R3" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -722,7 +726,9 @@
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-05_59_38', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'dblp', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['apa', 'apcpa'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 1000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="R4" t="inlineStr"/>
+      <c r="R4" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -790,7 +796,9 @@
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-04_04_21', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'dblp', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['apa', 'apcpa'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="R5" t="inlineStr"/>
+      <c r="R5" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -858,7 +866,9 @@
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_21-01_24_01', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'dblp', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['apa', 'apcpa'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 1500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="R6" t="inlineStr"/>
+      <c r="R6" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -903,7 +913,9 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>4096</v>
+      </c>
       <c r="L7" t="n">
         <v>2</v>
       </c>
@@ -994,7 +1006,9 @@
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-09_30_27', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'dblp', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['apa', 'apcpa'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 2000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="R8" t="inlineStr"/>
+      <c r="R8" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -1062,7 +1076,9 @@
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_21-01_57_53', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'dblp', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['apa', 'apcpa'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 3000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="R9" t="inlineStr"/>
+      <c r="R9" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -1130,7 +1146,9 @@
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-08_56_58', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'dblp', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['apa', 'apcpa'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 1000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="R10" t="inlineStr"/>
+      <c r="R10" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -1198,7 +1216,9 @@
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-07_10_48', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'dblp', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['apa', 'apcpa'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="R11" t="inlineStr"/>
+      <c r="R11" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -1266,7 +1286,9 @@
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_21-01_41_19', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'dblp', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['apa', 'apcpa'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 2500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="R12" t="inlineStr"/>
+      <c r="R12" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -1334,7 +1356,9 @@
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-05_25_40', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'dblp', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['apa', 'apcpa'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 200, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="R13" t="inlineStr"/>
+      <c r="R13" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -1402,7 +1426,9 @@
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-08_24_24', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'dblp', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['apa', 'apcpa'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 200, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="R14" t="inlineStr"/>
+      <c r="R14" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -1470,7 +1496,9 @@
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-06_38_09', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'dblp', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['apa', 'apcpa'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 100, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="R15" t="inlineStr"/>
+      <c r="R15" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1538,7 +1566,9 @@
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-03_23_11', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'dblp', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['apa', 'apcpa'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 100, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="R16" t="inlineStr"/>
+      <c r="R16" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1606,7 +1636,9 @@
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-04_44_56', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'dblp', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['apa', 'apcpa'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 0, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="R17" t="inlineStr"/>
+      <c r="R17" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1674,7 +1706,9 @@
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-07_47_58', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'dblp', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['apa', 'apcpa'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 0, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="R18" t="inlineStr"/>
+      <c r="R18" t="n">
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
